--- a/biology/Zoologie/Aaadonta/Aaadonta.xlsx
+++ b/biology/Zoologie/Aaadonta/Aaadonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aaadonta est un genre de mollusques gastéropodes terrestres de la famille des Endodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 septembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 septembre 2023) :
 Aaadonta angaurana Solem, 1976
 Aaadonta constricta (C.Semper, 1874)
 Aaadonta fuscozonata (R.H.Beddome, 1889)
@@ -547,9 +561,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aaadonta Solem (d), 1976[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aaadonta Solem (d), 1976.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Alan Solem, Endodontoid land snails from Pacific Islands (Mollusca : Pulmonata : Sigmurethra). Part I, Family Endodontidae, Chicago, Field Museum of Natural History, 1976, 540 p. (OCLC 30717826, DOI 10.5962/BHL.TITLE.2554, lire en ligne)</t>
         </is>
